--- a/ExDay2/Default.xlsx
+++ b/ExDay2/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Day2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -497,13 +497,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
